--- a/medicine/Enfance/Cécile_Gambini/Cécile_Gambini.xlsx
+++ b/medicine/Enfance/Cécile_Gambini/Cécile_Gambini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Gambini</t>
+          <t>Cécile_Gambini</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Gambini, née à Grasse le 24 juin 1973, est une auteure et illustratrice de littérature jeunesse française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Gambini</t>
+          <t>Cécile_Gambini</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cécile Gambini a étudié à l'école des Beaux-Arts d'Aix-en-Provence et à l'École supérieure des arts décoratifs de Strasbourg. Elle écrit et illustre des livres pour enfants depuis 1997[1],[2],[3] et expose ses œuvres[4]. 
-Elle illustre également des textes d'autres auteurs, dont Stéphane Servant[5], et elle est publiée chez de nombreux éditeurs jeunesse, tels Milan, Nathan, L'Atelier du poisson soluble, Didier Jeunesse ou Rue du Monde.
-Parmi ses travaux d'illustrations, elle illustre en 2013 Les plantes ont-elles un zizi ? Et autres questions fondamentales sur les végétaux, sur un texte de Jeanne Failevic et Véronique Pellissier, publié chez Actes Sud junior. Pour Dominique Fourment, dans La Revue des livres pour enfants du Centre national de la littérature pour la jeunesse (CNLJ):  « Écrit par une habituée du multimédia non-botaniste mais très inspirée par Francis Hallé, servi par une illustratrice de talent, un livre original, clair, très attrayant qui amène le lecteur à saisir l'essentiel et aborde des thèmes inédits[6]. »
-En 2019 elle effectue une résidence d'artiste à Montabuban de dix semaines avec le soutien du DRAC[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cécile Gambini a étudié à l'école des Beaux-Arts d'Aix-en-Provence et à l'École supérieure des arts décoratifs de Strasbourg. Elle écrit et illustre des livres pour enfants depuis 1997 et expose ses œuvres. 
+Elle illustre également des textes d'autres auteurs, dont Stéphane Servant, et elle est publiée chez de nombreux éditeurs jeunesse, tels Milan, Nathan, L'Atelier du poisson soluble, Didier Jeunesse ou Rue du Monde.
+Parmi ses travaux d'illustrations, elle illustre en 2013 Les plantes ont-elles un zizi ? Et autres questions fondamentales sur les végétaux, sur un texte de Jeanne Failevic et Véronique Pellissier, publié chez Actes Sud junior. Pour Dominique Fourment, dans La Revue des livres pour enfants du Centre national de la littérature pour la jeunesse (CNLJ):  « Écrit par une habituée du multimédia non-botaniste mais très inspirée par Francis Hallé, servi par une illustratrice de talent, un livre original, clair, très attrayant qui amène le lecteur à saisir l'essentiel et aborde des thèmes inédits. »
+En 2019 elle effectue une résidence d'artiste à Montabuban de dix semaines avec le soutien du DRAC.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Gambini</t>
+          <t>Cécile_Gambini</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,48 @@
           <t>Quelques ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a publié de nombreux ouvrages[8].
-Autrice et illustratrice
-Mes meilleurs amis, 1996
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a publié de nombreux ouvrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cécile_Gambini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gambini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mes meilleurs amis, 1996
 Le chien amoureux de la lune, 1997
 Pom, pom, pom, 1998
 Poulets, poulots et poulettes, 1999
@@ -568,9 +619,43 @@
 Tine ou Les idées noires au placard, 2014
 Au secours mémé, 2016
 Mais qui est derrière moi ?, 2016
-Les cadeaux impossibles, 2017
-Illustratrice
-Le Roi qui voulait voler ou La fabuleuse histoire des fous de Bassan, texte de Sylvie Rouch, ill. Cécile Gambini, Grandir, 1999
+Les cadeaux impossibles, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cécile_Gambini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gambini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Roi qui voulait voler ou La fabuleuse histoire des fous de Bassan, texte de Sylvie Rouch, ill. Cécile Gambini, Grandir, 1999
 Les Fêtes et Les Saisons, 2002
 Les goûters d'anniversaire, 2004
 Comptine, 2004
@@ -578,80 +663,84 @@
 Le Climat, De nos ancêtres à vos enfants, texte Valérie Masson-Delmotte et Bérengère Dubrulle, illustrations Cécile Gambini, éd. Le Pommier, Paris, 2005 ; et rééd.
 Le zoo, 2006
  Le français est un poème qui voyage : anthologie de poèmes francophones pour les enfants, poèmes réunis par Jean-Marie Henry, illustrations Cécile Gambini, préface d'Alain Rey, Rue du monde, 2006
-Cœur d'Alice[5], texte de Stéphane Servant, Rue du Monde, 2007
+Cœur d'Alice, texte de Stéphane Servant, Rue du Monde, 2007
  La petite fille au kimono rouge, texte de Kay Haugaard, traduit de l'anglais par F. de Lassus-Saint-Genies, illustrations  Cécile Gambini, Hachette Jeunesse, 2007
 L'enfant du bananier : un conte chinois, texte de Isabelle Sauer, illustrations Cécile Gambini, Didier jeunesse, 2010
-Jeux de portraits[9], texte de Laura Berg, 2012
-Les plantes ont-elles un zizi ? Et autres questions fondamentales sur les végétaux[6], texte de Jeanne Failevic et Véronique Pellissier, illustrations de Cécile Gambini, Actes Sud junior, 2013
-Six saucisses à roulettes[10], texte de Michaël Escoffier, ill. Cécile Gambini, L'atelier du poisson soluble, 2014
-Les deux cailloux : un conte africain[11], texte de Françoise Diep, illustrations de Cécile Gambini, Didier jeunesse, 2014
+Jeux de portraits, texte de Laura Berg, 2012
+Les plantes ont-elles un zizi ? Et autres questions fondamentales sur les végétaux, texte de Jeanne Failevic et Véronique Pellissier, illustrations de Cécile Gambini, Actes Sud junior, 2013
+Six saucisses à roulettes, texte de Michaël Escoffier, ill. Cécile Gambini, L'atelier du poisson soluble, 2014
+Les deux cailloux : un conte africain, texte de Françoise Diep, illustrations de Cécile Gambini, Didier jeunesse, 2014
  Mais qui est derrière moi ? , texte Agnès de Lestrade, ill. Cécile Gambini, la Poule qui pond édition, 2016
 Les Rebelles, 2018</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C3%A9cile_Gambini</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cécile_Gambini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gambini</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>« Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[12] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) :
  Le français est un poème qui voyage : anthologie de poèmes francophones pour les enfants, poèmes réunis par Jean-Marie Henry, illustrations Cécile Gambini, préface d'Alain Rey, Rue du monde, 2006
  La petite fille au kimono rouge, texte de Kay Haugaard, traduit de l'anglais par F. de Lassus-Saint-Genies, illustrations  Cécile Gambini, Hachette Jeunesse, 2007
 L'enfant du bananier : un conte chinois, texte de Isabelle Sauer, illustrations Cécile Gambini, Didier jeunesse, 2010</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C%C3%A9cile_Gambini</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cécile_Gambini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gambini</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>« Eux six » : le Musée de l'illustration jeunesse de Moulins l'expose avec 5 autres artistes dont Éric Battut et Fabienne Cinquin[13], 2016
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« Eux six » : le Musée de l'illustration jeunesse de Moulins l'expose avec 5 autres artistes dont Éric Battut et Fabienne Cinquin, 2016
 « Exposition Cécile Gambini », Endroit-Envers bouquiniste, Clermont-Ferrand, 2017
-En 2019 le musée Victor Brun expose les œuvres du photographe Patrick Bastide dans une exposition intitulée  « L'atelier éphémère : une histoire naturelle de Cécile Gambini. Exploration photographique d'une résidence par Patrick Bastide»[14].</t>
+En 2019 le musée Victor Brun expose les œuvres du photographe Patrick Bastide dans une exposition intitulée  « L'atelier éphémère : une histoire naturelle de Cécile Gambini. Exploration photographique d'une résidence par Patrick Bastide».</t>
         </is>
       </c>
     </row>
